--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -208,13 +208,10 @@
     <t>Canada, USA</t>
   </si>
   <si>
-    <t>Impact Hub</t>
-  </si>
-  <si>
     <t>Makesense</t>
   </si>
   <si>
-    <t>based in Paris, Mexico Dakar, Manila, Beirut, Lima, Delhi and Abidjan</t>
+    <t>USA, Canada, Mexico, Dominican Rep., Nicaragua, Guatemala, Trinidad and Tobago, Colombia, Argentinia, Paraguay, Brasil, Europe, Morocco, Tunisia, South Africa, Australia, Lebanon, Mali, Burkina Faso, Cote d'Ivoire, Senegal, Togo, Uganda, Kenya, Egypt, Turkey, Armenia, Teheran, Nepal, India, China, Myanmar, Cambodia, Vietnam, Malaysia, Singapore, Indonesia, Philippines, Dem. Rep. Korea, Japan, New Zealand</t>
   </si>
   <si>
     <t>Masschallenge</t>
@@ -263,9 +260,6 @@
   </si>
   <si>
     <t>worldwide, headoffice in Geneva</t>
-  </si>
-  <si>
-    <t>Schwartz Family Penn Impact Lab</t>
   </si>
   <si>
     <t>Seakademie</t>
@@ -1827,75 +1821,117 @@
       </c>
     </row>
     <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>65</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C30" s="4">
         <v>1.0</v>
       </c>
-      <c r="D30" s="4">
-        <v>0.0</v>
+      <c r="D30" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E30" s="4">
         <v>0.0</v>
       </c>
       <c r="F30" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G30" s="4">
         <v>1.0</v>
       </c>
       <c r="H30" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K30" s="4">
         <v>0.0</v>
       </c>
       <c r="L30" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M30" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N30" s="4">
         <v>1.0</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" ht="19.5" customHeight="1">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C31" s="4">
         <v>1.0</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>69</v>
+      <c r="D31" s="4">
+        <v>1.0</v>
       </c>
       <c r="E31" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F31" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G31" s="4">
         <v>1.0</v>
@@ -1904,25 +1940,25 @@
         <v>1.0</v>
       </c>
       <c r="I31" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J31" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K31" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L31" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M31" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N31" s="4">
         <v>1.0</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="19.5" customHeight="1">
@@ -1930,13 +1966,13 @@
         <v>71</v>
       </c>
       <c r="B32" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C32" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E32" s="4">
         <v>1.0</v>
@@ -1969,21 +2005,21 @@
         <v>1.0</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" ht="19.5" customHeight="1">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C33" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E33" s="4">
         <v>1.0</v>
@@ -2016,106 +2052,106 @@
         <v>1.0</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" ht="19.5" customHeight="1">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C34" s="4">
         <v>1.0</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>75</v>
+      <c r="D34" s="4">
+        <v>0.0</v>
       </c>
       <c r="E34" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H34" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I34" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J34" s="4">
         <v>1.0</v>
       </c>
       <c r="K34" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L34" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M34" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N34" s="4">
         <v>1.0</v>
       </c>
-      <c r="O34" s="4" t="s">
-        <v>76</v>
+      <c r="O34" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C35" s="4">
         <v>1.0</v>
       </c>
       <c r="D35" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F35" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G35" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H35" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J35" s="4">
         <v>1.0</v>
       </c>
       <c r="K35" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L35" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M35" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N35" s="4">
         <v>1.0</v>
       </c>
-      <c r="O35" s="6" t="s">
-        <v>78</v>
+      <c r="O35" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="4">
         <v>0.0</v>
@@ -2124,13 +2160,13 @@
         <v>1.0</v>
       </c>
       <c r="D36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>80</v>
+        <v>0.0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.0</v>
       </c>
       <c r="F36" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G36" s="4">
         <v>1.0</v>
@@ -2157,27 +2193,27 @@
         <v>1.0</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C37" s="4">
         <v>1.0</v>
       </c>
       <c r="D37" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E37" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F37" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G37" s="4">
         <v>1.0</v>
@@ -2186,35 +2222,77 @@
         <v>1.0</v>
       </c>
       <c r="I37" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" s="4">
         <v>1.0</v>
       </c>
       <c r="K37" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L37" s="4">
         <v>1.0</v>
       </c>
       <c r="M37" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N37" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39" ht="19.5" customHeight="1">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B39" s="4">
         <v>1.0</v>
@@ -2223,22 +2301,22 @@
         <v>1.0</v>
       </c>
       <c r="D39" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E39" s="4">
         <v>1.0</v>
       </c>
       <c r="F39" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" s="4">
         <v>1.0</v>
       </c>
       <c r="H39" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I39" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J39" s="4">
         <v>1.0</v>
@@ -2250,18 +2328,18 @@
         <v>1.0</v>
       </c>
       <c r="M39" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N39" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" ht="19.5" customHeight="1">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="4">
         <v>1.0</v>
@@ -2273,7 +2351,7 @@
         <v>0.0</v>
       </c>
       <c r="E40" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" s="4">
         <v>1.0</v>
@@ -2285,7 +2363,7 @@
         <v>0.0</v>
       </c>
       <c r="I40" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" s="4">
         <v>1.0</v>
@@ -2294,7 +2372,7 @@
         <v>0.0</v>
       </c>
       <c r="L40" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="4">
         <v>0.0</v>
@@ -2303,21 +2381,21 @@
         <v>0.0</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="19.5" customHeight="1">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C41" s="4">
         <v>1.0</v>
       </c>
       <c r="D41" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E41" s="4">
         <v>1.0</v>
@@ -2329,7 +2407,7 @@
         <v>1.0</v>
       </c>
       <c r="H41" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I41" s="4">
         <v>1.0</v>
@@ -2338,7 +2416,7 @@
         <v>1.0</v>
       </c>
       <c r="K41" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L41" s="4">
         <v>1.0</v>
@@ -2350,59 +2428,59 @@
         <v>1.0</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" ht="19.5" customHeight="1">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" s="4">
         <v>1.0</v>
       </c>
       <c r="D42" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E42" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F42" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H42" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I42" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J42" s="4">
         <v>1.0</v>
       </c>
       <c r="K42" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L42" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M42" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N42" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" s="4">
         <v>0.0</v>
@@ -2414,185 +2492,185 @@
         <v>1.0</v>
       </c>
       <c r="E43" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" s="4">
         <v>1.0</v>
       </c>
       <c r="H43" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" s="4">
         <v>1.0</v>
       </c>
       <c r="K43" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L43" s="4">
         <v>1.0</v>
       </c>
       <c r="M43" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N43" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N44" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" ht="19.5" customHeight="1">
-      <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L45" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M45" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>97</v>
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" ht="19.5" customHeight="1">
       <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O46" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="47" ht="19.5" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>13</v>
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4">
         <v>0.0</v>
@@ -2601,7 +2679,7 @@
         <v>1.0</v>
       </c>
       <c r="D48" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" s="4">
         <v>1.0</v>
@@ -2634,12 +2712,12 @@
         <v>1.0</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" ht="19.5" customHeight="1">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="4">
         <v>0.0</v>
@@ -2648,48 +2726,48 @@
         <v>1.0</v>
       </c>
       <c r="D49" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E49" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F49" s="4">
         <v>0.0</v>
       </c>
       <c r="G49" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H49" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I49" s="4">
         <v>1.0</v>
       </c>
       <c r="J49" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K49" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L49" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M49" s="4">
         <v>1.0</v>
       </c>
       <c r="N49" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C50" s="4">
         <v>1.0</v>
@@ -2698,10 +2776,10 @@
         <v>0.0</v>
       </c>
       <c r="E50" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G50" s="4">
         <v>1.0</v>
@@ -2716,24 +2794,24 @@
         <v>1.0</v>
       </c>
       <c r="K50" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L50" s="4">
         <v>1.0</v>
       </c>
       <c r="M50" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N50" s="4">
         <v>1.0</v>
       </c>
-      <c r="O50" s="4" t="s">
-        <v>104</v>
+      <c r="O50" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="51" ht="19.5" customHeight="1">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="4">
         <v>0.0</v>
@@ -2742,48 +2820,48 @@
         <v>1.0</v>
       </c>
       <c r="D51" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E51" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" s="4">
         <v>0.0</v>
       </c>
       <c r="G51" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I51" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J51" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K51" s="4">
         <v>1.0</v>
       </c>
       <c r="L51" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M51" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N51" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C52" s="4">
         <v>1.0</v>
@@ -2795,7 +2873,7 @@
         <v>0.0</v>
       </c>
       <c r="F52" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G52" s="4">
         <v>1.0</v>
@@ -2804,10 +2882,10 @@
         <v>1.0</v>
       </c>
       <c r="I52" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J52" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K52" s="4">
         <v>0.0</v>
@@ -2819,65 +2897,65 @@
         <v>0.0</v>
       </c>
       <c r="N52" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>108</v>
+        <v>0.0</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C53" s="4">
         <v>1.0</v>
       </c>
       <c r="D53" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E53" s="4">
         <v>0.0</v>
       </c>
       <c r="F53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K53" s="4">
         <v>1.0</v>
       </c>
       <c r="L53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N53" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" ht="19.5" customHeight="1">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C54" s="4">
         <v>1.0</v>
@@ -2886,42 +2964,18 @@
         <v>0.0</v>
       </c>
       <c r="E54" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F54" s="4">
         <v>0.0</v>
       </c>
-      <c r="G54" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H54" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L54" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M54" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N54" s="4">
-        <v>0.0</v>
-      </c>
       <c r="O54" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" ht="19.5" customHeight="1">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="4">
         <v>1.0</v>
@@ -2933,7 +2987,7 @@
         <v>0.0</v>
       </c>
       <c r="E55" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F55" s="4">
         <v>1.0</v>
@@ -2945,30 +2999,30 @@
         <v>1.0</v>
       </c>
       <c r="I55" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J55" s="4">
         <v>1.0</v>
       </c>
       <c r="K55" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L55" s="4">
         <v>1.0</v>
       </c>
       <c r="M55" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>114</v>
+        <v>0.0</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="56" ht="19.5" customHeight="1">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="4">
         <v>1.0</v>
@@ -2980,18 +3034,42 @@
         <v>0.0</v>
       </c>
       <c r="E56" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F56" s="4">
         <v>0.0</v>
       </c>
+      <c r="G56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M56" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1.0</v>
+      </c>
       <c r="O56" s="4" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B57" s="4">
         <v>1.0</v>
@@ -3003,7 +3081,7 @@
         <v>0.0</v>
       </c>
       <c r="E57" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" s="4">
         <v>1.0</v>
@@ -3015,30 +3093,30 @@
         <v>1.0</v>
       </c>
       <c r="I57" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J57" s="4">
         <v>1.0</v>
       </c>
       <c r="K57" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L57" s="4">
         <v>1.0</v>
       </c>
       <c r="M57" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N57" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>118</v>
+        <v>1.0</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="58" ht="19.5" customHeight="1">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B58" s="4">
         <v>1.0</v>
@@ -3056,36 +3134,36 @@
         <v>0.0</v>
       </c>
       <c r="G58" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H58" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I58" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J58" s="4">
         <v>1.0</v>
       </c>
       <c r="K58" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L58" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M58" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N58" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B59" s="4">
         <v>1.0</v>
@@ -3097,10 +3175,10 @@
         <v>0.0</v>
       </c>
       <c r="E59" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F59" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G59" s="4">
         <v>1.0</v>
@@ -3127,15 +3205,15 @@
         <v>1.0</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" ht="19.5" customHeight="1">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B60" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C60" s="4">
         <v>1.0</v>
@@ -3162,10 +3240,10 @@
         <v>1.0</v>
       </c>
       <c r="K60" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L60" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M60" s="4">
         <v>0.0</v>
@@ -3174,12 +3252,12 @@
         <v>0.0</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" ht="19.5" customHeight="1">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B61" s="4">
         <v>1.0</v>
@@ -3191,7 +3269,7 @@
         <v>0.0</v>
       </c>
       <c r="E61" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F61" s="4">
         <v>0.0</v>
@@ -3209,7 +3287,7 @@
         <v>1.0</v>
       </c>
       <c r="K61" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L61" s="4">
         <v>1.0</v>
@@ -3218,63 +3296,60 @@
         <v>1.0</v>
       </c>
       <c r="N61" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" ht="19.5" customHeight="1">
-      <c r="A62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J62" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K62" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L62" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N62" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O62" s="4" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="O61" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" ht="19.5" customHeight="1">
-      <c r="A63" t="s">
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="L62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="B63" s="4">
         <v>1.0</v>
       </c>
@@ -3288,127 +3363,38 @@
         <v>0.0</v>
       </c>
       <c r="F63" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G63" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H63" s="4">
         <v>1.0</v>
       </c>
       <c r="I63" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J63" s="4">
         <v>1.0</v>
       </c>
       <c r="K63" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L63" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M63" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N63" s="4">
         <v>0.0</v>
       </c>
-      <c r="O63" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="O63" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C65" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J65" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K65" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L65" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M65" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N65" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
+    </row>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
     <row r="68" ht="15.75" customHeight="1"/>
@@ -4340,8 +4326,6 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.787401575"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\GitHub\jakobwonisch.github.io\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604EAFE9-22DC-4995-B83D-BA7A8FDB136A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tabelle1" sheetId="1" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -58,13 +67,13 @@
     <t>Agora</t>
   </si>
   <si>
-    <t>Latin America, Caribbean</t>
+    <t>Belize, Costa Rica, El Salvador, Guatemala, Honduras, Dominican Rep., Mexico, Nicaragua, Panama, Cuba, Haiti, Peru, Chile, Argentinia, Brazil, Bolivia, Colombia, Ecuador, French Guinea, Paraguay, Uruguay, Venezuela, Puerto Rico</t>
   </si>
   <si>
     <t>Alfanar</t>
   </si>
   <si>
-    <t>Egypt, Libanon, Lybia</t>
+    <t>Egypt, Lebanon, Libya</t>
   </si>
   <si>
     <t>Amani Institute</t>
@@ -82,19 +91,19 @@
     <t>Bonventure</t>
   </si>
   <si>
-    <t>Schweiz, Österreich, Deutschland</t>
+    <t>Austria, Germany, Switzerland</t>
   </si>
   <si>
     <t>Boost Aid for Social Entrepreneurship by Training</t>
   </si>
   <si>
-    <t>Belgien, Bulgarien, Griechenland, UK</t>
+    <t>Belgium, Bulgaria, Greece, UK</t>
   </si>
   <si>
     <t>Centre for Social Innovation</t>
   </si>
   <si>
-    <t>Donauregion</t>
+    <t>Austria, Germany</t>
   </si>
   <si>
     <t>Deshpande Foundation</t>
@@ -115,19 +124,19 @@
     <t>Endeva</t>
   </si>
   <si>
-    <t>Africa, Asia, Caribbean, Eastern Europe and the CIS, Europe, Latin America, MENA</t>
+    <t>Africa, , Haiti, Cuba, Dominican Rep., Eastern Europe and the CIS, Europe, Latin America, MENA</t>
   </si>
   <si>
     <t>Entrepreneurship School</t>
   </si>
   <si>
-    <t>nur online</t>
+    <t>online</t>
   </si>
   <si>
     <t>Enviu</t>
   </si>
   <si>
-    <t>The Netherlands, East Africa (Nairobi, Kenya), India, USA</t>
+    <t>The Netherlands, Nairobi, Kenya, India, USA</t>
   </si>
   <si>
     <t>Euforia</t>
@@ -151,13 +160,10 @@
     <t>Facebook Social Entrepreneurship Award</t>
   </si>
   <si>
-    <t>überall bis auf Kuba, Nordkorea, Iran, Syrien</t>
-  </si>
-  <si>
     <t>Fledge</t>
   </si>
   <si>
-    <t>Peru, Barcelona, Italy, Canada, Boston, Seattle</t>
+    <t>Peru, Spain, Italy, Canada, USA</t>
   </si>
   <si>
     <t>Fossil Foundation</t>
@@ -169,7 +175,7 @@
     <t>Global Social Entrepreneurship Network</t>
   </si>
   <si>
-    <t>Canada, USA, Europe, Chile, South Africa, Tanzania, Kongo, Chad, Marokko, Israel, Zypern, China, Südkorea, Thailand, Malaysia, Indonesien, AUstralien, Neuseeland, Taiwan</t>
+    <t>Canada, USA, Europe, Chile, South Africa, Tanzania, Congo, Chad, Morocco, Israel, Cyprus, China, Dem. Rep. Korea, Thailand, Malaysia, Indonesia, Australia, New Zealand, Taiwan</t>
   </si>
   <si>
     <t>Europe</t>
@@ -187,21 +193,15 @@
     <t xml:space="preserve">Halcyon </t>
   </si>
   <si>
-    <t>USA, Saudi Arabien, Südkorea</t>
+    <t>USA, Saudi Arabia, Dem. Rep. Korea</t>
   </si>
   <si>
     <t>HKCSS Impact Incubator</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>Hult Prize</t>
   </si>
   <si>
-    <t>über 100 Länder</t>
-  </si>
-  <si>
     <t>Impact Engine</t>
   </si>
   <si>
@@ -220,7 +220,7 @@
     <t>1 (99 Dollars)</t>
   </si>
   <si>
-    <t xml:space="preserve">Boston, Israel, Mexico, Switzerland, UK but accepts application from everywhere in the world </t>
+    <t>USA, Israel, Mexico, Switzerland, UK</t>
   </si>
   <si>
     <t>Middlesex University Online Course</t>
@@ -229,18 +229,12 @@
     <t>Miller Center for Social Entrepreneurship</t>
   </si>
   <si>
-    <t>Santa Clara University and online</t>
-  </si>
-  <si>
     <t>Ogunte</t>
   </si>
   <si>
     <t>0 (individual coaching for a fee)</t>
   </si>
   <si>
-    <t>based in Uk but online and global activities</t>
-  </si>
-  <si>
     <t>Orange Social Venture Prize</t>
   </si>
   <si>
@@ -253,15 +247,9 @@
     <t>1 (free and low cost)</t>
   </si>
   <si>
-    <t>online course</t>
-  </si>
-  <si>
     <t>Schwab Foundation for Social Entrepreneurship</t>
   </si>
   <si>
-    <t>worldwide, headoffice in Geneva</t>
-  </si>
-  <si>
     <t>Seakademie</t>
   </si>
   <si>
@@ -271,34 +259,32 @@
     <t>SEED Initiative</t>
   </si>
   <si>
-    <t>Last years awards: Colombia, India, Tanzania, Thailand, Uganda - Locations are developing countries or countries in transition</t>
+    <t xml:space="preserve">Colombia, India, Tanzania, Thailand, Uganda </t>
   </si>
   <si>
     <t>Seed Stars</t>
   </si>
   <si>
-    <t>Asia, Africa, MENA, Latin America, ECA</t>
+    <t>Afghanistan, Armenia, Azerbaijan, Bahrain, Bangladesh, Bhutan, Brunei, Cambodia, China, Cyprus, Georgia, India, Indonesia, Iran, Iraq, Israel, Japan, Jordan, Kazakhstan, Kuwait, Kyrgyzstan, Laos, Lebanon, Malaysia, Maldives, Mongolia, Myanmar, Nepal, North Korea, Oman, Pakistan, Palestine, Philippines, Qatar, Russia, Saudi Arabia, Singapore, South Korea, Sri Lanka, Syria, Taiwan, Tajikistan, Thailand, Timor-Leste, Turkey, Turkmenistan, United Arab Emirates, Uzbekistan, Vietnam, Yemen, 
+Yemen Africa, MENA, Latin America, ECA</t>
   </si>
   <si>
     <t>Segal Family Foundation</t>
   </si>
   <si>
-    <t>South Africa, Botswana, Mardagaska, Senegal, Sierra Leone, Liberia, Mali, Burkina Faso, Nigeria, Rwanda, Uganda, Burundi, Tanzania, Malawia, Zambia</t>
+    <t>South Africa, Botswana, Madagaskar, Senegal, Sierra Leone, Liberia, Mali, Burkina Faso, Nigeria, Rwanda, Uganda, Burundi, Tanzania, Malawia, Zambia</t>
   </si>
   <si>
     <t>Singularity University</t>
   </si>
   <si>
-    <t>based in Silicon Valley and online</t>
-  </si>
-  <si>
     <t>Social Change Nation</t>
   </si>
   <si>
     <t>Social Enterprise Academy</t>
   </si>
   <si>
-    <t>Wales, Scotland, China, India,Malysia, Pakistan, Malawi, Zambia, South Africa, Italy</t>
+    <t>UK, China, India, Malysia, Pakistan, Malawi, Zambia, South Africa, Italy</t>
   </si>
   <si>
     <t>Social Enterprise Institute</t>
@@ -307,27 +293,21 @@
     <t>Social Entrepreneurship Coach</t>
   </si>
   <si>
-    <t xml:space="preserve">US-based and online </t>
+    <t xml:space="preserve">online </t>
   </si>
   <si>
     <t>Social Entrepreneurship Corps</t>
   </si>
   <si>
-    <t>Guatemala, Ecuador, Dominikanische Republik, Nicaragua</t>
+    <t>Guatemala, Ecuador, Dominican Rep., Nicaragua</t>
   </si>
   <si>
     <t>Society Profits</t>
   </si>
   <si>
-    <t>online focused on Europe (funded by European Commision)</t>
-  </si>
-  <si>
     <t>Taproot Foundation</t>
   </si>
   <si>
-    <t>active globally but focused on the US</t>
-  </si>
-  <si>
     <t>The Chivas Venture</t>
   </si>
   <si>
@@ -349,15 +329,9 @@
     <t>The Skoll Foundation</t>
   </si>
   <si>
-    <t>based in Oxford but international activities</t>
-  </si>
-  <si>
     <t>Uncharted</t>
   </si>
   <si>
-    <t>based in Denver, but run programms in over 27 countries</t>
-  </si>
-  <si>
     <t>UnLtd</t>
   </si>
   <si>
@@ -370,9 +344,6 @@
     <t>Village Capital</t>
   </si>
   <si>
-    <t>global but core activities in USA, Sub-Saharan Africa, South Asia and Latin America</t>
-  </si>
-  <si>
     <t>Vulcan Impact Investing</t>
   </si>
   <si>
@@ -385,13 +356,13 @@
     <t>Ygap</t>
   </si>
   <si>
-    <t>Bangladesh, South Africa,Kenya, Australia</t>
+    <t>Bangladesh, South Africa, Kenya, Australia</t>
   </si>
   <si>
     <t>Yunus Social Business</t>
   </si>
   <si>
-    <t>Germany, Balkan, India, Brazil, Colombia, Haiti, Mumbai, Tunisia, Uganda, Kenya</t>
+    <t>Germany, Albania, India, Brazil, Colombia, Haiti, India, Tunisia, Uganda, Kenya</t>
   </si>
   <si>
     <t>Oceania</t>
@@ -400,36 +371,49 @@
     <t>Google Foundation Award</t>
   </si>
   <si>
-    <t>Australia, Kenya,Nigeria, South Africa, Columbia, Cleveland</t>
+    <t>Australia, Kenya, Nigeria, South Africa, Columbia, USA</t>
+  </si>
+  <si>
+    <t>global, online</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="HelvNeue55"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -439,78 +423,377 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.78"/>
-    <col customWidth="1" min="2" max="2" width="8.33"/>
-    <col customWidth="1" min="3" max="3" width="11.0"/>
-    <col customWidth="1" min="4" max="4" width="11.67"/>
-    <col customWidth="1" min="5" max="5" width="9.0"/>
-    <col customWidth="1" min="6" max="6" width="9.22"/>
-    <col customWidth="1" min="7" max="7" width="5.33"/>
-    <col customWidth="1" min="8" max="8" width="6.89"/>
-    <col customWidth="1" min="9" max="9" width="8.11"/>
-    <col customWidth="1" min="10" max="10" width="6.44"/>
-    <col customWidth="1" min="11" max="11" width="5.67"/>
-    <col customWidth="1" min="12" max="12" width="8.22"/>
-    <col customWidth="1" min="13" max="13" width="8.67"/>
-    <col customWidth="1" min="14" max="14" width="5.44"/>
-    <col customWidth="1" min="15" max="15" width="14.78"/>
-    <col customWidth="1" min="16" max="16" width="17.44"/>
-    <col customWidth="1" min="17" max="17" width="154.11"/>
-    <col customWidth="1" min="18" max="24" width="8.33"/>
-    <col customWidth="1" min="25" max="25" width="81.89"/>
-    <col customWidth="1" min="26" max="26" width="8.33"/>
+    <col min="1" max="1" width="38.796875" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" customWidth="1"/>
+    <col min="7" max="7" width="5.296875" customWidth="1"/>
+    <col min="8" max="8" width="6.8984375" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" customWidth="1"/>
+    <col min="10" max="10" width="6.3984375" customWidth="1"/>
+    <col min="11" max="11" width="5.69921875" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875" customWidth="1"/>
+    <col min="14" max="14" width="5.3984375" customWidth="1"/>
+    <col min="15" max="15" width="14.796875" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" customWidth="1"/>
+    <col min="17" max="17" width="154.09765625" customWidth="1"/>
+    <col min="18" max="24" width="8.296875" customWidth="1"/>
+    <col min="25" max="25" width="81.8984375" customWidth="1"/>
+    <col min="26" max="26" width="8.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,947 +837,947 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1">
+    <row r="2" spans="1:15" ht="19.5" customHeight="1">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
+    <row r="3" spans="1:15" ht="19.5" customHeight="1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1">
+    <row r="4" spans="1:15" ht="19.5" customHeight="1">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1">
+    <row r="6" spans="1:15" ht="19.5" customHeight="1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1">
+    <row r="7" spans="1:15" ht="19.5" customHeight="1">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1">
+    <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1">
+    <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1">
+    <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="27.75" customHeight="1">
+    <row r="11" spans="1:15" ht="27.75" customHeight="1">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1">
+    <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1">
+    <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1">
+    <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1">
+    <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1">
+    <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1">
+    <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1">
+    <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" t="s">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O19" s="4" t="s">
+    </row>
+    <row r="20" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" t="s">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" t="s">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" ht="19.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>7</v>
@@ -1538,999 +1821,999 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1">
+    <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N23" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="B24" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" ht="19.5" customHeight="1">
+    <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" t="s">
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O26" s="4" t="s">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" t="s">
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N27" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O27" s="4" t="s">
+    </row>
+    <row r="29" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" t="s">
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O28" s="4" t="s">
+    </row>
+    <row r="30" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A30" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" t="s">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O29" s="4" t="s">
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A31" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O30" s="4" t="s">
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" t="s">
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N31" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" t="s">
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A34" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N32" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O32" s="4" t="s">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" t="s">
+    <row r="35" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N33" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O33" s="4" t="s">
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A36" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" t="s">
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O34" s="6" t="s">
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" ht="19.5" customHeight="1">
-      <c r="A35" t="s">
+    <row r="38" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N35" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O35" s="4" t="s">
+    </row>
+    <row r="39" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" t="s">
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="O39" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N36" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O36" s="4" t="s">
+    </row>
+    <row r="40" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" ht="19.5" customHeight="1">
-      <c r="A37" t="s">
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L37" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N37" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O37" s="4" t="s">
+    </row>
+    <row r="41" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A41" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" t="s">
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L38" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N38" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O38" s="4" t="s">
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A43" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" ht="19.5" customHeight="1">
-      <c r="A39" t="s">
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O39" s="4" t="s">
+    </row>
+    <row r="44" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" ht="19.5" customHeight="1">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" ht="19.5" customHeight="1">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" ht="19.5" customHeight="1">
-      <c r="A42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" ht="19.5" customHeight="1">
-      <c r="A43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L43" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M43" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N43" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" ht="19.5" customHeight="1">
-      <c r="A44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" ht="19.5" customHeight="1">
+    <row r="45" spans="1:15" ht="19.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2550,7 +2833,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>7</v>
@@ -2574,735 +2857,732 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" ht="19.5" customHeight="1">
+    <row r="46" spans="1:15" ht="19.5" customHeight="1">
       <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4">
+        <v>1</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4">
+        <v>1</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4">
+        <v>0</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A51" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N46" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O46" s="4" t="s">
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
+        <v>0</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" ht="19.5" customHeight="1">
-      <c r="A47" t="s">
+    <row r="52" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A52" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C47" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M47" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N47" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O47" s="4" t="s">
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" ht="19.5" customHeight="1">
-      <c r="A48" t="s">
+    <row r="53" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A53" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N48" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O48" s="4" t="s">
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53" s="4">
+        <v>1</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A54" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="49" ht="19.5" customHeight="1">
-      <c r="A49" t="s">
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A55" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N49" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O49" s="4" t="s">
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0</v>
+      </c>
+      <c r="O55" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" ht="19.5" customHeight="1">
-      <c r="A50" t="s">
+    <row r="56" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A56" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M50" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N50" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" ht="19.5" customHeight="1">
-      <c r="A51" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C51" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K51" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L51" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M51" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N51" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" ht="19.5" customHeight="1">
-      <c r="A52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G52" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K52" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L52" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M52" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N52" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" ht="19.5" customHeight="1">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="N53" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" ht="19.5" customHeight="1">
-      <c r="A54" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C54" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" ht="19.5" customHeight="1">
-      <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L55" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M55" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N55" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" ht="19.5" customHeight="1">
-      <c r="A56" t="s">
-        <v>117</v>
-      </c>
       <c r="B56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" ht="19.5" customHeight="1">
+    <row r="57" spans="1:15" ht="19.5" customHeight="1">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E57" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" ht="19.5" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="19.5" customHeight="1">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B58" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J58" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" ht="19.5" customHeight="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="19.5" customHeight="1">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" ht="19.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="19.5" customHeight="1">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C60" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J60" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" ht="19.5" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="19.5" customHeight="1">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>7</v>
@@ -3334,7 +3614,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>11</v>
@@ -3346,54 +3626,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:15" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B63" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H63" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J63" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4327,9 +4607,7 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.787401575"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\GitHub\jakobwonisch.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604EAFE9-22DC-4995-B83D-BA7A8FDB136A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866397C0-8939-40FD-8FD4-F62F51CC7B0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -31,163 +31,166 @@
     <t>educational Workshops/Training/Mentoring</t>
   </si>
   <si>
+    <t>Costs (participants)</t>
+  </si>
+  <si>
+    <t>Online Courses (1= nur online)</t>
+  </si>
+  <si>
+    <t>Award</t>
+  </si>
+  <si>
+    <t>Eu</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Central America</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>Agora</t>
+  </si>
+  <si>
+    <t>Belize, Costa Rica, El Salvador, Guatemala, Honduras, Dominican Rep., Mexico, Nicaragua, Panama, Cuba, Haiti, Peru, Chile, Argentinia, Brazil, Bolivia, Colombia, Ecuador, French Guinea, Paraguay, Uruguay, Venezuela, Puerto Rico</t>
+  </si>
+  <si>
+    <t>Alfanar</t>
+  </si>
+  <si>
+    <t>Egypt, Lebanon, Libya</t>
+  </si>
+  <si>
+    <t>AMANI Institute</t>
+  </si>
+  <si>
+    <t>India, Kenya, Brazil</t>
+  </si>
+  <si>
+    <t>Ashoka</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>Bonventure</t>
+  </si>
+  <si>
+    <t>Austria, Germany, Switzerland</t>
+  </si>
+  <si>
+    <t>Boost Aid for Social Entrepreneurship by Training (BASET)</t>
+  </si>
+  <si>
+    <t>Belgium, Bulgaria, Greece, UK</t>
+  </si>
+  <si>
+    <t>Centre for Social Innovation</t>
+  </si>
+  <si>
+    <t>Austria, Germany</t>
+  </si>
+  <si>
+    <t>Deshpande Foundation</t>
+  </si>
+  <si>
+    <t>Canada, USA, India</t>
+  </si>
+  <si>
+    <t>Echoing Green</t>
+  </si>
+  <si>
+    <t>Enactus</t>
+  </si>
+  <si>
+    <t>Australia, Azerbaijan, Brazil, Canada, China, France, Germany, Ghana, Guatemala, India, Ireland, Italy, Kazakhstan, Kenya, Korea, Kyrgyzstan,Malaysia, Mexico, Morocco, Netherlands, Nigeria, Philippines, Poland, Puerto Rico, Russia, Senegal, Singapore, South Africa, Swaziland, Tajikistan, Tunisia, Ukraine, United Kingdom, United States, Zimbabwe</t>
+  </si>
+  <si>
+    <t>Endeva</t>
+  </si>
+  <si>
+    <t>Algeria, Angola, Benin, Botswana, Burkina Faso, Burundi, Cabo Verde, Cameroon, Central African Republic, Chad, Comoros, Dem. Rep. Congo, Congo, Cote d’Ivoire, Djibouti, Egypt, Equatorial Guinea, Eritrea, Swaziland, Ethiopia, Gabon, Gambia, Ghana, Guinea, Guinea-Bissau, Kenya, Lesotho, Liberia, Libya, Madagascar, Malawi, Mali, Mauritania, Mauritius, Morocco, Mozambique, Namibia, Niger, Nigeria, Rwanda, Sao Tome and Principe, Senegal, Seychelles, Sierra Leone, Somalia, South Africa, South Sudan, Sudan, Tanzania, Togo, Tunisia, Uganda, Zambia, Zimbabwe, Haiti, Cuba, Dominican Rep., Europe, Argentinia, Brazil, Bolivia, Chile, Colombia, Costa Rica, Cuba, Dominican Rep., Ecuador, El Salvador, French Guiana, Guatemala, Honduras, Martinique, Mexico, Nicaragua, Panama, Paraguay, Peru, Puerto Rico, Uruguay, Venezuela, Algeria, Bahrain, Egypt, Iran, Iraq, Israel</t>
+  </si>
+  <si>
+    <t>Entrepreneurship School (Social Entrepreneurship)</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Enviu</t>
+  </si>
+  <si>
+    <t>The Netherlands, Nairobi, Kenya, India, USA</t>
+  </si>
+  <si>
+    <t>Euforia</t>
+  </si>
+  <si>
+    <t>Switzerland, Rwanda, Egypt, Greece, Turkey, Austria, Netherlands, P. of Liechtenstein, France, Germany, Portugal, Colombia, Peru, Bolivia</t>
+  </si>
+  <si>
+    <t>European Social Innovation Competition</t>
+  </si>
+  <si>
+    <t>Iceland, Norway, Albania, Bosnia and Herzegovina, Macedonia, Montenegro, Serbia, Turkey, Israel, Moldova, Switzerland, Faroe Islands, Ukraine, Tunisia, Georgia, Armenia</t>
+  </si>
+  <si>
+    <t>EY - Entrepreneur of the Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada, Indonesia, Phillipines </t>
+  </si>
+  <si>
+    <t>Facebook Social Entrepreneurship Award</t>
+  </si>
+  <si>
+    <t>Fledge</t>
+  </si>
+  <si>
+    <t>Peru, Spain, Italy, Canada, USA</t>
+  </si>
+  <si>
+    <t>Fossil Foundation</t>
+  </si>
+  <si>
+    <t>Canada, USA, Ecuador, Zambia, Kenya, Nigeria, Italy, Switzerland, UK, Poland, India, Cambodia, Laos, China, Hong Kong, Taiwan</t>
+  </si>
+  <si>
+    <t>Global Social Entrepreneurship Network</t>
+  </si>
+  <si>
+    <t>Canada, USA, Europe, Chile, South Africa, Tanzania, Congo, Chad, Morocco, Israel, Cyprus, China, Dem. Rep. Korea, Thailand, Malaysia, Indonesia, Australia, New Zealand, Taiwan</t>
+  </si>
+  <si>
     <t>Costs</t>
   </si>
   <si>
     <t>Online Courses (1= nur online, 2= beides)</t>
   </si>
   <si>
-    <t>Award</t>
-  </si>
-  <si>
-    <t>Eu</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Central America</t>
-  </si>
-  <si>
-    <t>Middle East</t>
-  </si>
-  <si>
-    <t>Agora</t>
-  </si>
-  <si>
-    <t>Belize, Costa Rica, El Salvador, Guatemala, Honduras, Dominican Rep., Mexico, Nicaragua, Panama, Cuba, Haiti, Peru, Chile, Argentinia, Brazil, Bolivia, Colombia, Ecuador, French Guinea, Paraguay, Uruguay, Venezuela, Puerto Rico</t>
-  </si>
-  <si>
-    <t>Alfanar</t>
-  </si>
-  <si>
-    <t>Egypt, Lebanon, Libya</t>
-  </si>
-  <si>
-    <t>Amani Institute</t>
-  </si>
-  <si>
-    <t>India, Kenya, Brazil</t>
-  </si>
-  <si>
-    <t>Ashoka</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>Bonventure</t>
-  </si>
-  <si>
-    <t>Austria, Germany, Switzerland</t>
-  </si>
-  <si>
-    <t>Boost Aid for Social Entrepreneurship by Training</t>
-  </si>
-  <si>
-    <t>Belgium, Bulgaria, Greece, UK</t>
-  </si>
-  <si>
-    <t>Centre for Social Innovation</t>
-  </si>
-  <si>
-    <t>Austria, Germany</t>
-  </si>
-  <si>
-    <t>Deshpande Foundation</t>
-  </si>
-  <si>
-    <t>Canada, USA, India</t>
-  </si>
-  <si>
-    <t>Echoing Green</t>
-  </si>
-  <si>
-    <t>Enactus</t>
-  </si>
-  <si>
-    <t>Australia, Azerbaijan, Brazil, Canada, China, France, Germany, Ghana, Guatemala, India, Ireland, Italy, Kazakhstan, Kenya, Korea, Kyrgyzstan,Malaysia, Mexico, Morocco, Netherlands, Nigeria, Philippines, Poland, Puerto Rico, Russia, Senegal, Singapore, South Africa, Swaziland, Tajikistan, Tunisia, Ukraine, United Kingdom, United States, Zimbabwe</t>
-  </si>
-  <si>
-    <t>Endeva</t>
-  </si>
-  <si>
-    <t>Africa, , Haiti, Cuba, Dominican Rep., Eastern Europe and the CIS, Europe, Latin America, MENA</t>
-  </si>
-  <si>
-    <t>Entrepreneurship School</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>Enviu</t>
-  </si>
-  <si>
-    <t>The Netherlands, Nairobi, Kenya, India, USA</t>
-  </si>
-  <si>
-    <t>Euforia</t>
-  </si>
-  <si>
-    <t>Switzerland, Rwanda, Egypt, Greece, Turkey, Austria, Netherlands, P. of Liechtenstein, France, Germany, Portugal, Colombia, Peru, Bolivia</t>
-  </si>
-  <si>
-    <t>European Social Innovation Competition</t>
-  </si>
-  <si>
-    <t>Iceland, Norway, Albania, Bosnia and Herzegovina, Macedonia, Montenegro, Serbia, Turkey, Israel, Moldova, Switzerland, Faroe Islands, Ukraine, Tunisia, Georgia, Armenia</t>
-  </si>
-  <si>
-    <t>EY - Entrepreneur of the Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada, Indonesia, Phillipines </t>
-  </si>
-  <si>
-    <t>Facebook Social Entrepreneurship Award</t>
-  </si>
-  <si>
-    <t>Fledge</t>
-  </si>
-  <si>
-    <t>Peru, Spain, Italy, Canada, USA</t>
-  </si>
-  <si>
-    <t>Fossil Foundation</t>
-  </si>
-  <si>
-    <t>Canada, USA, Ecuador, Zambia, Kenya, Nigeria, Italy, Switzerland, UK, Poland, India, Cambodia, Laos, China, Hong Kong, Taiwan</t>
-  </si>
-  <si>
-    <t>Global Social Entrepreneurship Network</t>
-  </si>
-  <si>
-    <t>Canada, USA, Europe, Chile, South Africa, Tanzania, Congo, Chad, Morocco, Israel, Cyprus, China, Dem. Rep. Korea, Thailand, Malaysia, Indonesia, Australia, New Zealand, Taiwan</t>
-  </si>
-  <si>
     <t>Europe</t>
   </si>
   <si>
     <t>Global Social Venture Competition</t>
   </si>
   <si>
-    <t>65 countries (Mappe auf Website)</t>
-  </si>
-  <si>
-    <t>Global Center for Social Entrepreneurship Networks</t>
+    <t>Global Center for Social Entrepreneurship Networks (GCSEN)</t>
   </si>
   <si>
     <t xml:space="preserve">Halcyon </t>
@@ -214,37 +217,25 @@
     <t>USA, Canada, Mexico, Dominican Rep., Nicaragua, Guatemala, Trinidad and Tobago, Colombia, Argentinia, Paraguay, Brasil, Europe, Morocco, Tunisia, South Africa, Australia, Lebanon, Mali, Burkina Faso, Cote d'Ivoire, Senegal, Togo, Uganda, Kenya, Egypt, Turkey, Armenia, Teheran, Nepal, India, China, Myanmar, Cambodia, Vietnam, Malaysia, Singapore, Indonesia, Philippines, Dem. Rep. Korea, Japan, New Zealand</t>
   </si>
   <si>
-    <t>Masschallenge</t>
-  </si>
-  <si>
-    <t>1 (99 Dollars)</t>
+    <t>MassChallenge</t>
   </si>
   <si>
     <t>USA, Israel, Mexico, Switzerland, UK</t>
   </si>
   <si>
-    <t>Middlesex University Online Course</t>
-  </si>
-  <si>
-    <t>Miller Center for Social Entrepreneurship</t>
+    <t>Middlesex University London (Social Enterprise: Turning Ideas into Action)</t>
   </si>
   <si>
     <t>Ogunte</t>
   </si>
   <si>
-    <t>0 (individual coaching for a fee)</t>
-  </si>
-  <si>
     <t>Orange Social Venture Prize</t>
   </si>
   <si>
     <t>Morocco, Tunisia, Egypt, Senegal, Botswana, Liberia, Ivory Coast, Cameroon, Mali, Guinea Conakry, Guinea Bissau, Madagascar, Niger, Central African Republic, Democratic Republic of Congo, Jordan and Burkina Faso</t>
   </si>
   <si>
-    <t>PlusAcumen</t>
-  </si>
-  <si>
-    <t>1 (free and low cost)</t>
+    <t>Acumen</t>
   </si>
   <si>
     <t>Schwab Foundation for Social Entrepreneurship</t>
@@ -262,11 +253,10 @@
     <t xml:space="preserve">Colombia, India, Tanzania, Thailand, Uganda </t>
   </si>
   <si>
-    <t>Seed Stars</t>
-  </si>
-  <si>
-    <t>Afghanistan, Armenia, Azerbaijan, Bahrain, Bangladesh, Bhutan, Brunei, Cambodia, China, Cyprus, Georgia, India, Indonesia, Iran, Iraq, Israel, Japan, Jordan, Kazakhstan, Kuwait, Kyrgyzstan, Laos, Lebanon, Malaysia, Maldives, Mongolia, Myanmar, Nepal, North Korea, Oman, Pakistan, Palestine, Philippines, Qatar, Russia, Saudi Arabia, Singapore, South Korea, Sri Lanka, Syria, Taiwan, Tajikistan, Thailand, Timor-Leste, Turkey, Turkmenistan, United Arab Emirates, Uzbekistan, Vietnam, Yemen, 
-Yemen Africa, MENA, Latin America, ECA</t>
+    <t>Seedstars</t>
+  </si>
+  <si>
+    <t>Afghanistan, Armenia, Azerbaijan, Bahrain, Bangladesh, Bhutan, Brunei, Cambodia, China, Cyprus, Georgia, India, Indonesia, Iran, Iraq, Israel, Japan, Jordan, Kazakhstan, Kuwait, Kyrgyzstan, Laos, Lebanon, Malaysia, Maldives, Mongolia, Myanmar, Nepal, North Korea, Oman, Pakistan, Palestine, Philippines, Qatar, Russia, Saudi Arabia, Singapore, South Korea, Sri Lanka, Syria, Taiwan, Tajikistan, Thailand, Timor-Leste, Turkey, Turkmenistan, United Arab Emirates, Uzbekistan, Vietnam, Yemen, Algeria, Angola, Benin, Botswana, Burkina Faso, Burundi, Cabo Verde, Cameroon, Central African Republic, Chad, Comoros, Dem. Rep. Congo, Congo, Cote d’Ivoire, Djibouti, Egypt, Equatorial Guinea, Eritrea, Swaziland, Ethiopia, Gabon, Gambia, Ghana, Guinea, Guinea-Bissau, Kenya, Lesotho, Liberia, Libya, Madagascar, Malawi, Mali, Mauritania, Mauritius, Morocco, Mozambique, Namibia, Niger, Nigeria, Rwanda, Sao Tome and Principe, Senegal, Seychelles, Sierra Leone, Somalia, South Africa, South Sudan, Sudan, Tanzania, Togo, Tunisia, Uganda, Zambia, Zimbabwe, Algeria, Bahrain, Egypt, Iran, Iraq, Israel, Argentinia, Brazil, Bolivia, Chile, Colombia, Costa Rica, Cuba, Dominican Rep., Ecuador, El Salvador, French Guiana, Guatemala, Honduras, Martinique, Mexico, Nicaragua, Panama, Paraguay, Peru, Puerto Rico, Uruguay, Venezuela, Albania, Armenia, Azerbaijan, Belarus, Georgia, Kazakhstan, Kosovo, Kyrgyzstan, Macedonia, Moldova, Montenegro, Russia, Serbia, Tajikistan, Turkmenistan, Ukraine, Uzbekistan</t>
   </si>
   <si>
     <t>Segal Family Foundation</t>
@@ -302,7 +292,7 @@
     <t>Guatemala, Ecuador, Dominican Rep., Nicaragua</t>
   </si>
   <si>
-    <t>Society Profits</t>
+    <t>SocietyProfits</t>
   </si>
   <si>
     <t>Taproot Foundation</t>
@@ -332,6 +322,9 @@
     <t>Uncharted</t>
   </si>
   <si>
+    <t>(no information)</t>
+  </si>
+  <si>
     <t>UnLtd</t>
   </si>
   <si>
@@ -374,7 +367,7 @@
     <t>Australia, Kenya, Nigeria, South Africa, Columbia, USA</t>
   </si>
   <si>
-    <t>global, online</t>
+    <t>Miller Center for Social Entrepreneurship - Global Social Benefit Institute</t>
   </si>
 </sst>
 </file>
@@ -402,18 +395,12 @@
       <name val="HelvNeue55"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -448,7 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,12 +753,12 @@
   <dimension ref="A1:O996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.296875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.69921875" customWidth="1"/>
@@ -932,7 +919,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4">
@@ -1073,7 +1060,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="4">
@@ -1355,7 +1342,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="4">
@@ -1788,16 +1775,16 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>7</v>
@@ -1823,7 +1810,7 @@
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -1865,12 +1852,12 @@
         <v>1</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -1917,7 +1904,7 @@
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -1959,12 +1946,12 @@
         <v>1</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -2011,7 +1998,7 @@
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -2058,7 +2045,7 @@
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -2100,12 +2087,12 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -2147,12 +2134,12 @@
         <v>1</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A30" t="s">
-        <v>64</v>
+      <c r="A30" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -2160,8 +2147,8 @@
       <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>65</v>
+      <c r="D30" s="4">
+        <v>1</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2198,7 +2185,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4">
@@ -2245,8 +2232,8 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A32" t="s">
-        <v>68</v>
+      <c r="A32" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -2293,7 +2280,7 @@
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -2301,8 +2288,8 @@
       <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>70</v>
+      <c r="D33" s="4">
+        <v>0</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2335,60 +2322,60 @@
         <v>1</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
       <c r="B35" s="4">
         <v>0</v>
       </c>
@@ -2398,8 +2385,8 @@
       <c r="D35" s="4">
         <v>1</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>74</v>
+      <c r="E35" s="4">
+        <v>1</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -2434,7 +2421,7 @@
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -2481,7 +2468,7 @@
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -2523,106 +2510,106 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="O39" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
-      </c>
-      <c r="L38" s="4">
-        <v>1</v>
-      </c>
-      <c r="M38" s="4">
-        <v>0</v>
-      </c>
-      <c r="N38" s="4">
-        <v>0</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4">
-        <v>1</v>
-      </c>
-      <c r="M39" s="4">
-        <v>1</v>
-      </c>
-      <c r="N39" s="4">
-        <v>1</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
@@ -2664,12 +2651,12 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -2716,7 +2703,7 @@
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -2763,7 +2750,7 @@
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -2805,12 +2792,54 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4">
+        <v>1</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1">
@@ -2824,16 +2853,16 @@
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>7</v>
@@ -2859,7 +2888,7 @@
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -2901,12 +2930,12 @@
         <v>1</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -2948,12 +2977,12 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A48" t="s">
-        <v>93</v>
+      <c r="A48" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -3000,7 +3029,7 @@
     </row>
     <row r="49" spans="1:15" ht="19.5" customHeight="1">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
@@ -3047,7 +3076,7 @@
     </row>
     <row r="50" spans="1:15" ht="19.5" customHeight="1">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -3089,12 +3118,12 @@
         <v>1</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="19.5" customHeight="1">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
@@ -3136,12 +3165,12 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="19.5" customHeight="1">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B52" s="4">
         <v>0</v>
@@ -3183,12 +3212,12 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="19.5" customHeight="1">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -3235,7 +3264,7 @@
     </row>
     <row r="54" spans="1:15" ht="19.5" customHeight="1">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B54" s="4">
         <v>1</v>
@@ -3251,11 +3280,14 @@
       </c>
       <c r="F54" s="4">
         <v>0</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="19.5" customHeight="1">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -3297,12 +3329,12 @@
         <v>0</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="19.5" customHeight="1">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" s="4">
         <v>1</v>
@@ -3349,7 +3381,7 @@
     </row>
     <row r="57" spans="1:15" ht="19.5" customHeight="1">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
@@ -3396,7 +3428,7 @@
     </row>
     <row r="58" spans="1:15" ht="19.5" customHeight="1">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
@@ -3438,12 +3470,12 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="19.5" customHeight="1">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -3490,7 +3522,7 @@
     </row>
     <row r="60" spans="1:15" ht="19.5" customHeight="1">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
@@ -3532,12 +3564,12 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="19.5" customHeight="1">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61" s="4">
         <v>1</v>
@@ -3579,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15.75" customHeight="1">
@@ -3593,16 +3625,16 @@
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>7</v>
@@ -3614,7 +3646,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>11</v>
@@ -3628,7 +3660,7 @@
     </row>
     <row r="63" spans="1:15" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B63" s="4">
         <v>1</v>
@@ -3670,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15.75" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\GitHub\jakobwonisch.github.io\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866397C0-8939-40FD-8FD4-F62F51CC7B0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Tabelle1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -67,7 +58,7 @@
     <t>Agora</t>
   </si>
   <si>
-    <t>Belize, Costa Rica, El Salvador, Guatemala, Honduras, Dominican Rep., Mexico, Nicaragua, Panama, Cuba, Haiti, Peru, Chile, Argentinia, Brazil, Bolivia, Colombia, Ecuador, French Guinea, Paraguay, Uruguay, Venezuela, Puerto Rico</t>
+    <t>Belize, Costa Rica, El Salvador, Guatemala, Honduras, Dominican Rep., Mexico, Nicaragua, Panama, Cuba, Haiti, Peru, Chile, Argentina, Brazil, Bolivia, Colombia, Ecuador, Guinea, Paraguay, Uruguay, Venezuela, Puerto Rico</t>
   </si>
   <si>
     <t>Alfanar</t>
@@ -118,13 +109,13 @@
     <t>Enactus</t>
   </si>
   <si>
-    <t>Australia, Azerbaijan, Brazil, Canada, China, France, Germany, Ghana, Guatemala, India, Ireland, Italy, Kazakhstan, Kenya, Korea, Kyrgyzstan,Malaysia, Mexico, Morocco, Netherlands, Nigeria, Philippines, Poland, Puerto Rico, Russia, Senegal, Singapore, South Africa, Swaziland, Tajikistan, Tunisia, Ukraine, United Kingdom, United States, Zimbabwe</t>
+    <t>Australia, Azerbaijan, Brazil, Canada, China, France, Germany, Ghana, Guatemala, India, Ireland, Italy, Kazakhstan, Kenya, Korea, Kyrgyzstan,Malaysia, Mexico, Morocco, Netherlands, Nigeria, Philippines, Poland, Puerto Rico, Russia, Senegal, Singapore, South Africa, Swaziland, Tajikistan, Tunisia, Ukraine, UK, USA, Zimbabwe</t>
   </si>
   <si>
     <t>Endeva</t>
   </si>
   <si>
-    <t>Algeria, Angola, Benin, Botswana, Burkina Faso, Burundi, Cabo Verde, Cameroon, Central African Republic, Chad, Comoros, Dem. Rep. Congo, Congo, Cote d’Ivoire, Djibouti, Egypt, Equatorial Guinea, Eritrea, Swaziland, Ethiopia, Gabon, Gambia, Ghana, Guinea, Guinea-Bissau, Kenya, Lesotho, Liberia, Libya, Madagascar, Malawi, Mali, Mauritania, Mauritius, Morocco, Mozambique, Namibia, Niger, Nigeria, Rwanda, Sao Tome and Principe, Senegal, Seychelles, Sierra Leone, Somalia, South Africa, South Sudan, Sudan, Tanzania, Togo, Tunisia, Uganda, Zambia, Zimbabwe, Haiti, Cuba, Dominican Rep., Europe, Argentinia, Brazil, Bolivia, Chile, Colombia, Costa Rica, Cuba, Dominican Rep., Ecuador, El Salvador, French Guiana, Guatemala, Honduras, Martinique, Mexico, Nicaragua, Panama, Paraguay, Peru, Puerto Rico, Uruguay, Venezuela, Algeria, Bahrain, Egypt, Iran, Iraq, Israel</t>
+    <t>Afghanistan, Armenia, Azerbaijan, Bahrain, Bangladesh, Bhutan, Brunei, Cambodia, China, Cyprus, Georgia, India, Indonesia, Iran, Iraq, Israel, Japan, Jordan, Kazakhstan, Kuwait, Kyrgyzstan, Laos, Lebanon, Malaysia, Maldives, Mongolia, Myanmar, Nepal, Oman, Pakistan, Palestine, Philippines, Qatar, Russia, Saudi Arabia, Singapore, Dem. Rep. Korea, Sri Lanka, Syria, Taiwan, Tajikistan, Thailand, Timor-Leste, Turkey, Turkmenistan, United Arab Emirates, Uzbekistan, Vietnam, Yemen, Algeria, Angola, Benin, Botswana, Burkina Faso, Burundi, Cabo Verde, Cameroon, Central African Rep., Chad, Comoros, Dem. Rep. Congo, Congo, Cote d’Ivoire, Djibouti, Egypt, Eq. Guinea, Eritrea, Swaziland, Ethiopia, Gabon, Gambia, Ghana, Guinea, Guinea-Bissau, Kenya, Lesotho, Liberia, Libya, Madagascar, Malawi, Mali, Mauritania, Mauritius, Morocco, Mozambique, Namibia, Niger, Nigeria, Rwanda, Sao Tome and Principe, Senegal, Seychelles, Sierra Leone, Somalia, South Africa, S. Sudan, Sudan, Tanzania, Togo, Tunisia, Uganda, Zambia, Zimbabwe, Algeria, Bahrain, Egypt, Iran, Iraq, Israel, Brazil, Bolivia, Chile, Colombia, Costa Rica, Cuba, Dominican Rep., Ecuador, El Salvador, Guinea, Guatemala, Honduras, Martinique, Mexico, Nicaragua, Panama, Paraguay, Peru, Puerto Rico, Uruguay, Venezuela, Albania, Armenia, Azerbaijan, Belarus, Georgia, Kazakhstan, Kosovo, Kyrgyzstan, Macedonia, Moldova, Montenegro, Russia, Serbia, Tajikistan, Turkmenistan, Ukraine, Uzbekistan, Argentina</t>
   </si>
   <si>
     <t>Entrepreneurship School (Social Entrepreneurship)</t>
@@ -136,7 +127,7 @@
     <t>Enviu</t>
   </si>
   <si>
-    <t>The Netherlands, Nairobi, Kenya, India, USA</t>
+    <t>Netherlands, Nairobi, Kenya, India, USA</t>
   </si>
   <si>
     <t>Euforia</t>
@@ -148,13 +139,13 @@
     <t>European Social Innovation Competition</t>
   </si>
   <si>
-    <t>Iceland, Norway, Albania, Bosnia and Herzegovina, Macedonia, Montenegro, Serbia, Turkey, Israel, Moldova, Switzerland, Faroe Islands, Ukraine, Tunisia, Georgia, Armenia</t>
+    <t>Iceland, Norway, Albania, Bosnia and Herz., Macedonia, Montenegro, Serbia, Turkey, Israel, Moldova, Switzerland, Faroe Islands, Ukraine, Tunisia, Georgia, Armenia</t>
   </si>
   <si>
     <t>EY - Entrepreneur of the Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada, Indonesia, Phillipines </t>
+    <t xml:space="preserve">Canada, Indonesia, Philippines </t>
   </si>
   <si>
     <t>Facebook Social Entrepreneurship Award</t>
@@ -214,7 +205,7 @@
     <t>Makesense</t>
   </si>
   <si>
-    <t>USA, Canada, Mexico, Dominican Rep., Nicaragua, Guatemala, Trinidad and Tobago, Colombia, Argentinia, Paraguay, Brasil, Europe, Morocco, Tunisia, South Africa, Australia, Lebanon, Mali, Burkina Faso, Cote d'Ivoire, Senegal, Togo, Uganda, Kenya, Egypt, Turkey, Armenia, Teheran, Nepal, India, China, Myanmar, Cambodia, Vietnam, Malaysia, Singapore, Indonesia, Philippines, Dem. Rep. Korea, Japan, New Zealand</t>
+    <t>USA, Canada, Mexico, Dominican Rep., Nicaragua, Guatemala, Trinidad and Tobago, Colombia, Argentina, Paraguay, Brazil, Europe, Morocco, Tunisia, South Africa, Australia, Lebanon, Mali, Burkina Faso, Cote d'Ivoire, Senegal, Togo, Uganda, Kenya, Egypt, Turkey, Armenia, Teheran, Nepal, India, China, Myanmar, Cambodia, Vietnam, Malaysia, Singapore, Indonesia, Philippines, Dem. Rep. Korea, Japan, New Zealand</t>
   </si>
   <si>
     <t>MassChallenge</t>
@@ -226,13 +217,16 @@
     <t>Middlesex University London (Social Enterprise: Turning Ideas into Action)</t>
   </si>
   <si>
+    <t>Miller Center for Social Entrepreneurship - Global Social Benefit Institute</t>
+  </si>
+  <si>
     <t>Ogunte</t>
   </si>
   <si>
     <t>Orange Social Venture Prize</t>
   </si>
   <si>
-    <t>Morocco, Tunisia, Egypt, Senegal, Botswana, Liberia, Ivory Coast, Cameroon, Mali, Guinea Conakry, Guinea Bissau, Madagascar, Niger, Central African Republic, Democratic Republic of Congo, Jordan and Burkina Faso</t>
+    <t>Morocco, Tunisia, Egypt, Senegal, Botswana, Liberia, cote d'ivoire, Cameroon, Mali, Guinea , Guinea-Bissau, Madagascar, Niger, Central African Rep., Dem. Rep. Congo, Jordan, Burkina Faso</t>
   </si>
   <si>
     <t>Acumen</t>
@@ -256,13 +250,10 @@
     <t>Seedstars</t>
   </si>
   <si>
-    <t>Afghanistan, Armenia, Azerbaijan, Bahrain, Bangladesh, Bhutan, Brunei, Cambodia, China, Cyprus, Georgia, India, Indonesia, Iran, Iraq, Israel, Japan, Jordan, Kazakhstan, Kuwait, Kyrgyzstan, Laos, Lebanon, Malaysia, Maldives, Mongolia, Myanmar, Nepal, North Korea, Oman, Pakistan, Palestine, Philippines, Qatar, Russia, Saudi Arabia, Singapore, South Korea, Sri Lanka, Syria, Taiwan, Tajikistan, Thailand, Timor-Leste, Turkey, Turkmenistan, United Arab Emirates, Uzbekistan, Vietnam, Yemen, Algeria, Angola, Benin, Botswana, Burkina Faso, Burundi, Cabo Verde, Cameroon, Central African Republic, Chad, Comoros, Dem. Rep. Congo, Congo, Cote d’Ivoire, Djibouti, Egypt, Equatorial Guinea, Eritrea, Swaziland, Ethiopia, Gabon, Gambia, Ghana, Guinea, Guinea-Bissau, Kenya, Lesotho, Liberia, Libya, Madagascar, Malawi, Mali, Mauritania, Mauritius, Morocco, Mozambique, Namibia, Niger, Nigeria, Rwanda, Sao Tome and Principe, Senegal, Seychelles, Sierra Leone, Somalia, South Africa, South Sudan, Sudan, Tanzania, Togo, Tunisia, Uganda, Zambia, Zimbabwe, Algeria, Bahrain, Egypt, Iran, Iraq, Israel, Argentinia, Brazil, Bolivia, Chile, Colombia, Costa Rica, Cuba, Dominican Rep., Ecuador, El Salvador, French Guiana, Guatemala, Honduras, Martinique, Mexico, Nicaragua, Panama, Paraguay, Peru, Puerto Rico, Uruguay, Venezuela, Albania, Armenia, Azerbaijan, Belarus, Georgia, Kazakhstan, Kosovo, Kyrgyzstan, Macedonia, Moldova, Montenegro, Russia, Serbia, Tajikistan, Turkmenistan, Ukraine, Uzbekistan</t>
-  </si>
-  <si>
     <t>Segal Family Foundation</t>
   </si>
   <si>
-    <t>South Africa, Botswana, Madagaskar, Senegal, Sierra Leone, Liberia, Mali, Burkina Faso, Nigeria, Rwanda, Uganda, Burundi, Tanzania, Malawia, Zambia</t>
+    <t>South Africa, Botswana, Madagascar, Senegal, Sierra Leone, Liberia, Mali, Burkina Faso, Nigeria, Rwanda, Uganda, Burundi, Tanzania, Malawi, Zambia</t>
   </si>
   <si>
     <t>Singularity University</t>
@@ -274,7 +265,7 @@
     <t>Social Enterprise Academy</t>
   </si>
   <si>
-    <t>UK, China, India, Malysia, Pakistan, Malawi, Zambia, South Africa, Italy</t>
+    <t>UK, China, India, Malaysia, Pakistan, Malawi, Zambia, South Africa, Italy</t>
   </si>
   <si>
     <t>Social Enterprise Institute</t>
@@ -301,7 +292,7 @@
     <t>The Chivas Venture</t>
   </si>
   <si>
-    <t>Argentina, Uruguay, Belgium, Brazil, Bulgaria, Chile, England/Wales, Greece, Israel, Italy, Japan, Mexico, Netherlands, Poland, Portugal, Romania, Scotland, Northern Ireland, Slovakia, South Afrika, USA, Vietnam</t>
+    <t>Argentina, Uruguay, Belgium, Brazil, Bulgaria, Chile, Greece, Israel, Italy, Japan, Mexico, Netherlands, Poland, Portugal, Romania, UK, Slovakia, South Africa, USA, Vietnam</t>
   </si>
   <si>
     <t>The Difference Incubator</t>
@@ -322,9 +313,6 @@
     <t>Uncharted</t>
   </si>
   <si>
-    <t>(no information)</t>
-  </si>
-  <si>
     <t>UnLtd</t>
   </si>
   <si>
@@ -364,35 +352,28 @@
     <t>Google Foundation Award</t>
   </si>
   <si>
-    <t>Australia, Kenya, Nigeria, South Africa, Columbia, USA</t>
-  </si>
-  <si>
-    <t>Miller Center for Social Entrepreneurship - Global Social Benefit Institute</t>
+    <t>Australia, Kenya, Nigeria, South Africa, Colombia, USA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="4">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="HelvNeue55"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -400,7 +381,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -410,377 +391,81 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O996"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" customWidth="1"/>
-    <col min="2" max="2" width="8.296875" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" customWidth="1"/>
-    <col min="7" max="7" width="5.296875" customWidth="1"/>
-    <col min="8" max="8" width="6.8984375" customWidth="1"/>
-    <col min="9" max="9" width="8.09765625" customWidth="1"/>
-    <col min="10" max="10" width="6.3984375" customWidth="1"/>
-    <col min="11" max="11" width="5.69921875" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" customWidth="1"/>
-    <col min="14" max="14" width="5.3984375" customWidth="1"/>
-    <col min="15" max="15" width="14.796875" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" customWidth="1"/>
-    <col min="17" max="17" width="154.09765625" customWidth="1"/>
-    <col min="18" max="24" width="8.296875" customWidth="1"/>
-    <col min="25" max="25" width="81.8984375" customWidth="1"/>
-    <col min="26" max="26" width="8.296875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="19.44"/>
+    <col customWidth="1" min="2" max="2" width="8.33"/>
+    <col customWidth="1" min="3" max="3" width="11.0"/>
+    <col customWidth="1" min="4" max="4" width="11.67"/>
+    <col customWidth="1" min="5" max="5" width="9.0"/>
+    <col customWidth="1" min="6" max="6" width="9.22"/>
+    <col customWidth="1" min="7" max="7" width="5.33"/>
+    <col customWidth="1" min="8" max="8" width="6.89"/>
+    <col customWidth="1" min="9" max="9" width="8.11"/>
+    <col customWidth="1" min="10" max="10" width="6.44"/>
+    <col customWidth="1" min="11" max="11" width="5.67"/>
+    <col customWidth="1" min="12" max="12" width="8.22"/>
+    <col customWidth="1" min="13" max="13" width="8.67"/>
+    <col customWidth="1" min="14" max="14" width="5.44"/>
+    <col customWidth="1" min="15" max="15" width="14.78"/>
+    <col customWidth="1" min="16" max="16" width="17.44"/>
+    <col customWidth="1" min="17" max="17" width="154.11"/>
+    <col customWidth="1" min="18" max="24" width="8.33"/>
+    <col customWidth="1" min="25" max="25" width="81.89"/>
+    <col customWidth="1" min="26" max="26" width="8.33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,947 +509,947 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I2" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L2" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M2" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N2" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M3" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N3" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1">
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L4" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M4" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N4" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1">
+    <row r="5" ht="19.5" customHeight="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N5" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1">
+    <row r="6" ht="19.5" customHeight="1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N6" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1">
+    <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N7" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1">
+    <row r="8" ht="19.5" customHeight="1">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1">
+    <row r="9" ht="19.5" customHeight="1">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L9" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1">
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N10" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="27.75" customHeight="1">
+    <row r="11" ht="27.75" customHeight="1">
       <c r="A11" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H11" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J11" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K11" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L11" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M11" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J12" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L12" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M12" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N12" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1">
+    <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1">
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H14" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L14" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N14" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1">
+    <row r="15" ht="19.5" customHeight="1">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J15" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M15" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1">
+    <row r="16" ht="19.5" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G16" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M16" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19.5" customHeight="1">
+    <row r="17" ht="19.5" customHeight="1">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19.5" customHeight="1">
+    <row r="18" ht="19.5" customHeight="1">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="19.5" customHeight="1">
+    <row r="19" ht="19.5" customHeight="1">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C19" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H19" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I19" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N19" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="19.5" customHeight="1">
+    <row r="20" ht="19.5" customHeight="1">
       <c r="A20" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C20" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H20" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I20" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J20" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L20" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N20" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19.5" customHeight="1">
+    <row r="21" ht="19.5" customHeight="1">
       <c r="A21" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H21" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I21" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J21" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K21" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L21" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M21" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N21" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19.5" customHeight="1">
+    <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,1041 +1493,1041 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="19.5" customHeight="1">
+    <row r="23" ht="19.5" customHeight="1">
       <c r="A23" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N23" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19.5" customHeight="1">
+    <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N24" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19.5" customHeight="1">
+    <row r="25" ht="19.5" customHeight="1">
       <c r="A25" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C25" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F25" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H25" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I25" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L25" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M25" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N25" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19.5" customHeight="1">
+    <row r="26" ht="19.5" customHeight="1">
       <c r="A26" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N26" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19.5" customHeight="1">
+    <row r="27" ht="19.5" customHeight="1">
       <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N27" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="19.5" customHeight="1">
+    <row r="28" ht="19.5" customHeight="1">
       <c r="A28" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H28" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N28" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="19.5" customHeight="1">
+    <row r="29" ht="19.5" customHeight="1">
       <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G29" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I29" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J29" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K29" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L29" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M29" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N29" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="19.5" customHeight="1">
+    <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C30" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G30" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H30" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M30" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N30" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19.5" customHeight="1">
+    <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N31" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="19.5" customHeight="1">
+    <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E32" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G32" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H32" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I32" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J32" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K32" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L32" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M32" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N32" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="19.5" customHeight="1">
+    <row r="33" ht="19.5" customHeight="1">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C33" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E33" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G33" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H33" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I33" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J33" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K33" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L33" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M33" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N33" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="19.5" customHeight="1">
+    <row r="34" ht="19.5" customHeight="1">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C34" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F34" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J34" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M34" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N34" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="19.5" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N35" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="19.5" customHeight="1">
+    <row r="36" ht="19.5" customHeight="1">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C36" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E36" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G36" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H36" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I36" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J36" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K36" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L36" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M36" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N36" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="19.5" customHeight="1">
+    <row r="37" ht="19.5" customHeight="1">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C37" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D37" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E37" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G37" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H37" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L37" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N37" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="19.5" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" ht="19.5" customHeight="1">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C38" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E38" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F38" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J38" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L38" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N38" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="19.5" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" ht="19.5" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C39" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D39" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E39" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F39" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G39" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H39" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I39" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J39" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K39" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L39" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M39" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N39" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="19.5" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" ht="19.5" customHeight="1">
       <c r="A40" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C40" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D40" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G40" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I40" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K40" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L40" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N40" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="19.5" customHeight="1">
+    <row r="41" ht="19.5" customHeight="1">
       <c r="A41" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N41" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="19.5" customHeight="1">
+    <row r="42" ht="19.5" customHeight="1">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N42" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="19.5" customHeight="1">
+    <row r="43" ht="19.5" customHeight="1">
       <c r="A43" t="s">
         <v>83</v>
       </c>
       <c r="B43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C43" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L43" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N43" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="19.5" customHeight="1">
+    <row r="44" ht="19.5" customHeight="1">
       <c r="A44" t="s">
         <v>85</v>
       </c>
       <c r="B44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F44" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N44" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="19.5" customHeight="1">
+    <row r="45" ht="19.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -2886,735 +2571,732 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="19.5" customHeight="1">
+    <row r="46" ht="19.5" customHeight="1">
       <c r="A46" t="s">
         <v>86</v>
       </c>
       <c r="B46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F46" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N46" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="19.5" customHeight="1">
+    <row r="47" ht="19.5" customHeight="1">
       <c r="A47" t="s">
         <v>88</v>
       </c>
       <c r="B47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I47" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M47" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N47" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O47" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="19.5" customHeight="1">
+    <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H48" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I48" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J48" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K48" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L48" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M48" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N48" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="19.5" customHeight="1">
+    <row r="49" ht="19.5" customHeight="1">
       <c r="A49" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C49" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E49" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G49" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H49" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I49" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J49" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K49" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L49" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M49" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N49" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="19.5" customHeight="1">
+    <row r="50" ht="19.5" customHeight="1">
       <c r="A50" t="s">
         <v>92</v>
       </c>
       <c r="B50" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C50" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G50" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H50" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I50" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J50" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L50" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M50" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N50" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="19.5" customHeight="1">
+    <row r="51" ht="19.5" customHeight="1">
       <c r="A51" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C51" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K51" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N51" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="19.5" customHeight="1">
+    <row r="52" ht="19.5" customHeight="1">
       <c r="A52" t="s">
         <v>96</v>
       </c>
       <c r="B52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C52" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G52" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H52" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L52" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N52" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="19.5" customHeight="1">
+    <row r="53" ht="19.5" customHeight="1">
       <c r="A53" t="s">
         <v>98</v>
       </c>
       <c r="B53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D53" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E53" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N53" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O53" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="19.5" customHeight="1">
+    <row r="54" ht="19.5" customHeight="1">
       <c r="A54" t="s">
         <v>99</v>
       </c>
       <c r="B54" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C54" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D54" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E54" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="O54" s="4" t="s">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55" ht="19.5" customHeight="1">
+      <c r="A55" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A55" t="s">
+      <c r="B55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N55" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O55" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="4">
-        <v>1</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="4">
-        <v>1</v>
-      </c>
-      <c r="G55" s="4">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>1</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0</v>
-      </c>
-      <c r="L55" s="4">
-        <v>1</v>
-      </c>
-      <c r="M55" s="4">
-        <v>0</v>
-      </c>
-      <c r="N55" s="4">
-        <v>0</v>
-      </c>
-      <c r="O55" s="5" t="s">
+    </row>
+    <row r="56" ht="19.5" customHeight="1">
+      <c r="A56" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A56" t="s">
-        <v>103</v>
-      </c>
       <c r="B56" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C56" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G56" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H56" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I56" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J56" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K56" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L56" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M56" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N56" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="19.5" customHeight="1">
+    <row r="57" ht="19.5" customHeight="1">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D57" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E57" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N57" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="19.5" customHeight="1">
+    <row r="58" ht="19.5" customHeight="1">
       <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N58" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="4">
-        <v>1</v>
-      </c>
-      <c r="C58" s="4">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <v>1</v>
-      </c>
-      <c r="K58" s="4">
-        <v>0</v>
-      </c>
-      <c r="L58" s="4">
-        <v>0</v>
-      </c>
-      <c r="M58" s="4">
-        <v>0</v>
-      </c>
-      <c r="N58" s="4">
-        <v>0</v>
-      </c>
-      <c r="O58" s="4" t="s">
+    </row>
+    <row r="59" ht="19.5" customHeight="1">
+      <c r="A59" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A59" t="s">
-        <v>107</v>
-      </c>
       <c r="B59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D59" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F59" s="4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="K59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="L59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="M59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="N59" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="19.5" customHeight="1">
+    <row r="60" ht="19.5" customHeight="1">
       <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N60" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O60" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="4">
-        <v>0</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
-        <v>0</v>
-      </c>
-      <c r="J60" s="4">
-        <v>1</v>
-      </c>
-      <c r="K60" s="4">
-        <v>1</v>
-      </c>
-      <c r="L60" s="4">
-        <v>1</v>
-      </c>
-      <c r="M60" s="4">
-        <v>0</v>
-      </c>
-      <c r="N60" s="4">
-        <v>0</v>
-      </c>
-      <c r="O60" s="4" t="s">
+    </row>
+    <row r="61" ht="19.5" customHeight="1">
+      <c r="A61" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A61" t="s">
+      <c r="B61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M61" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="N61" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O61" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="4">
-        <v>1</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4">
-        <v>1</v>
-      </c>
-      <c r="I61" s="4">
-        <v>1</v>
-      </c>
-      <c r="J61" s="4">
-        <v>1</v>
-      </c>
-      <c r="K61" s="4">
-        <v>0</v>
-      </c>
-      <c r="L61" s="4">
-        <v>1</v>
-      </c>
-      <c r="M61" s="4">
-        <v>1</v>
-      </c>
-      <c r="N61" s="4">
-        <v>0</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3646,7 +3328,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>11</v>
@@ -3658,54 +3340,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="O63" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="4">
-        <v>1</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
-        <v>1</v>
-      </c>
-      <c r="I63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <v>1</v>
-      </c>
-      <c r="K63" s="4">
-        <v>1</v>
-      </c>
-      <c r="L63" s="4">
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <v>0</v>
-      </c>
-      <c r="N63" s="4">
-        <v>0</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -4639,7 +4321,9 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.787401575"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>